--- a/Credit Card Calcs for debt.xlsx
+++ b/Credit Card Calcs for debt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="420" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Morey Budget 2016 2017  as of 2" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Morey Budget 2016 2017  as of 2'!$A$1:$K$1684</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">USAA!$A$3:$XEX$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -56526,8 +56526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+    <sheetView topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="F208" sqref="F208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62162,8 +62162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62171,6 +62171,7 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -69646,8 +69647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
